--- a/extras/sample-form/Sample form - Format symbol field plug-in.xlsx
+++ b/extras/sample-form/Sample form - Format symbol field plug-in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\format-symbol\extras\sample-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F22AD78-3D5B-4774-B70E-606E1CC0C0E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DFEB09-11E3-4620-81DE-9453293D804F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,16 +161,10 @@
     <t>Enter amount</t>
   </si>
   <si>
-    <t>custom-format-symbol(symbol = "$",placement="start")</t>
-  </si>
-  <si>
     <t>percentage</t>
   </si>
   <si>
     <t>Enter percent value</t>
-  </si>
-  <si>
-    <t>custom-format-symbol(symbol = "%",placement="end")</t>
   </si>
   <si>
     <t>list_name</t>
@@ -2696,6 +2690,12 @@
   </si>
   <si>
     <t>See the percentage sign on the rihght of the input box.</t>
+  </si>
+  <si>
+    <t>custom-format-symbol(symbol = "$",placement="left")</t>
+  </si>
+  <si>
+    <t>custom-format-symbol(symbol = "%",placement="right")</t>
   </si>
 </sst>
 </file>
@@ -4700,7 +4700,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -5127,15 +5127,15 @@
         <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
@@ -5169,11 +5169,11 @@
         <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
@@ -5201,17 +5201,17 @@
         <v>38</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
@@ -12205,19 +12205,19 @@
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -12242,13 +12242,13 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -12275,13 +12275,13 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -18971,22 +18971,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="14"/>
@@ -19011,23 +19011,23 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2103042311</v>
+        <v>2103051304</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -20047,7 +20047,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="17"/>
@@ -20113,7 +20113,7 @@
     </row>
     <row r="3" spans="1:30" ht="96.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="17"/>
@@ -20188,13 +20188,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
@@ -20209,7 +20209,7 @@
         <v>7</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>8</v>
@@ -20224,7 +20224,7 @@
         <v>11</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>12</v>
@@ -20245,13 +20245,13 @@
         <v>17</v>
       </c>
       <c r="W5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>18</v>
@@ -20271,94 +20271,94 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="M6" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="N6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="O6" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="P6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="Q6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="R6" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="S6" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="T6" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="U6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="V6" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="W6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="X6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="Y6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="X6" s="18" t="s">
+      <c r="Z6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" s="18" t="s">
+      <c r="AA6" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="Z6" s="18" t="s">
+      <c r="AB6" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AA6" s="18" t="s">
+      <c r="AC6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AB6" s="18" t="s">
+      <c r="AD6" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="AC6" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD6" s="18" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -20395,7 +20395,7 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="19"/>
@@ -20461,13 +20461,13 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>100</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>102</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -20499,20 +20499,20 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>101</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>103</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -20539,13 +20539,13 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -20580,10 +20580,10 @@
         <v>38</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -20615,13 +20615,13 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -20653,20 +20653,20 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>110</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -20693,20 +20693,20 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -20733,20 +20733,20 @@
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -20773,20 +20773,20 @@
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -20813,20 +20813,20 @@
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -20853,20 +20853,20 @@
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -20893,20 +20893,20 @@
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -20933,20 +20933,20 @@
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -20973,20 +20973,20 @@
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -21013,20 +21013,20 @@
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -21053,20 +21053,20 @@
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -21093,20 +21093,20 @@
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -21133,20 +21133,20 @@
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -21173,20 +21173,20 @@
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -21213,13 +21213,13 @@
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -21251,20 +21251,20 @@
     </row>
     <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>140</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -21291,20 +21291,20 @@
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A31" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -21331,20 +21331,20 @@
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A32" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -21371,20 +21371,20 @@
     </row>
     <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A33" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -21411,20 +21411,20 @@
     </row>
     <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A34" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -21451,20 +21451,20 @@
     </row>
     <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A35" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
@@ -21491,20 +21491,20 @@
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A36" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -21531,20 +21531,20 @@
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A37" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -21571,13 +21571,13 @@
     </row>
     <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A38" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
@@ -21609,13 +21609,13 @@
     </row>
     <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A39" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
@@ -21647,13 +21647,13 @@
     </row>
     <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A40" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -21685,13 +21685,13 @@
     </row>
     <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A41" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
@@ -21723,13 +21723,13 @@
     </row>
     <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A42" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
@@ -21761,20 +21761,20 @@
     </row>
     <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A43" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -21801,13 +21801,13 @@
     </row>
     <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A44" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
@@ -21839,20 +21839,20 @@
     </row>
     <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A45" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>162</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -21879,13 +21879,13 @@
     </row>
     <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A46" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
@@ -21917,20 +21917,20 @@
     </row>
     <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A47" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -21957,20 +21957,20 @@
     </row>
     <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A48" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
@@ -21997,20 +21997,20 @@
     </row>
     <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A49" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
@@ -22037,13 +22037,13 @@
     </row>
     <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A50" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
@@ -22075,13 +22075,13 @@
     </row>
     <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A51" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
@@ -22113,13 +22113,13 @@
     </row>
     <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A52" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
@@ -22154,10 +22154,10 @@
         <v>19</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
@@ -22192,7 +22192,7 @@
         <v>23</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="21"/>
@@ -22228,7 +22228,7 @@
         <v>25</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="21"/>
@@ -22264,7 +22264,7 @@
         <v>27</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="21"/>
@@ -22300,7 +22300,7 @@
         <v>28</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="21"/>
@@ -22336,7 +22336,7 @@
         <v>29</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="21"/>
@@ -22372,7 +22372,7 @@
         <v>37</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="21"/>
@@ -22408,7 +22408,7 @@
         <v>31</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C60" s="22"/>
       <c r="D60" s="21"/>
@@ -22441,10 +22441,10 @@
     </row>
     <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A61" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="21"/>
@@ -22480,7 +22480,7 @@
         <v>34</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="21"/>
@@ -22498,7 +22498,7 @@
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
       <c r="R62" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S62" s="21"/>
       <c r="T62" s="21"/>
@@ -22515,10 +22515,10 @@
     </row>
     <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A63" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="21"/>
@@ -22536,7 +22536,7 @@
       <c r="P63" s="21"/>
       <c r="Q63" s="21"/>
       <c r="R63" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S63" s="21"/>
       <c r="T63" s="21"/>
@@ -22553,10 +22553,10 @@
     </row>
     <row r="64" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A64" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="21"/>
@@ -22564,7 +22564,7 @@
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
       <c r="H64" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
@@ -22591,10 +22591,10 @@
     </row>
     <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A65" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="21"/>
@@ -22602,7 +22602,7 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
       <c r="H65" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
@@ -22629,10 +22629,10 @@
     </row>
     <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A66" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C66" s="22"/>
       <c r="D66" s="21"/>
@@ -22640,7 +22640,7 @@
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
       <c r="H66" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
@@ -22667,10 +22667,10 @@
     </row>
     <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A67" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="21"/>
@@ -22678,7 +22678,7 @@
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
       <c r="H67" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I67" s="21"/>
       <c r="J67" s="21"/>
@@ -22705,13 +22705,13 @@
     </row>
     <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A68" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>189</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
@@ -22743,7 +22743,7 @@
     </row>
     <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A69" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B69" s="21"/>
       <c r="C69" s="22"/>
@@ -22777,10 +22777,10 @@
     </row>
     <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A70" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="21"/>
@@ -22813,13 +22813,13 @@
     </row>
     <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A71" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>194</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
@@ -22851,7 +22851,7 @@
     </row>
     <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A72" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
@@ -22885,10 +22885,10 @@
     </row>
     <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A73" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="21"/>
@@ -22921,13 +22921,13 @@
     </row>
     <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A74" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
@@ -22961,7 +22961,7 @@
     </row>
     <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A75" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -22995,10 +22995,10 @@
     </row>
     <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A76" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="21"/>
@@ -23031,10 +23031,10 @@
     </row>
     <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A77" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="21"/>
@@ -23067,10 +23067,10 @@
     </row>
     <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A78" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="21"/>
@@ -23103,10 +23103,10 @@
     </row>
     <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A79" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="21"/>
@@ -23114,7 +23114,7 @@
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
       <c r="H79" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
@@ -23141,10 +23141,10 @@
     </row>
     <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A80" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="21"/>
@@ -23152,7 +23152,7 @@
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
       <c r="H80" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I80" s="21"/>
       <c r="J80" s="21"/>
@@ -23179,10 +23179,10 @@
     </row>
     <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A81" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C81" s="22"/>
       <c r="D81" s="21"/>
@@ -23190,7 +23190,7 @@
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
       <c r="H81" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I81" s="21"/>
       <c r="J81" s="21"/>
@@ -23220,7 +23220,7 @@
     </row>
     <row r="83" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A83" s="47" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B83" s="46"/>
       <c r="C83" s="25"/>
@@ -23257,27 +23257,27 @@
     </row>
     <row r="85" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A85" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="D85" s="27" t="s">
         <v>207</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A86" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" s="28" t="s">
         <v>210</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>212</v>
       </c>
       <c r="D86" s="28">
         <v>2</v>
@@ -23285,10 +23285,10 @@
     </row>
     <row r="87" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A87" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C87" s="29" t="str">
         <f>"3 - 2"</f>
@@ -23300,13 +23300,13 @@
     </row>
     <row r="88" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A88" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" s="28" t="s">
         <v>215</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>217</v>
       </c>
       <c r="D88" s="28">
         <v>6</v>
@@ -23314,13 +23314,13 @@
     </row>
     <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A89" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" s="28" t="s">
         <v>218</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="D89" s="28">
         <v>5</v>
@@ -23328,13 +23328,13 @@
     </row>
     <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A90" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="28" t="s">
         <v>221</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>223</v>
       </c>
       <c r="D90" s="28">
         <v>1</v>
@@ -23342,128 +23342,128 @@
     </row>
     <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A91" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C91" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B91" s="28" t="s">
+      <c r="D91" s="28" t="s">
         <v>225</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D91" s="28" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A92" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B92" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>230</v>
-      </c>
       <c r="D92" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A93" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="B93" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>233</v>
-      </c>
       <c r="D93" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A94" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="B94" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>236</v>
-      </c>
       <c r="D94" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A95" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B95" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>239</v>
-      </c>
       <c r="D95" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A96" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="B96" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>242</v>
-      </c>
       <c r="D96" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A97" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="B97" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>245</v>
-      </c>
       <c r="D97" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A98" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B98" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>248</v>
-      </c>
       <c r="D98" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A99" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B99" s="28" t="s">
+      <c r="D99" s="28" t="s">
         <v>250</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -23475,330 +23475,330 @@
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A101" s="26"/>
       <c r="B101" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D101" s="26"/>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A102" s="26"/>
       <c r="B102" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D102" s="26"/>
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A103" s="26"/>
       <c r="B103" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D103" s="26"/>
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A104" s="26"/>
       <c r="B104" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D104" s="26"/>
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A105" s="26"/>
       <c r="B105" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D105" s="26"/>
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A106" s="26"/>
       <c r="B106" s="31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D106" s="26"/>
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A107" s="26"/>
       <c r="B107" s="31" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D107" s="26"/>
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A108" s="26"/>
       <c r="B108" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D108" s="26"/>
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A109" s="26"/>
       <c r="B109" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D109" s="26"/>
     </row>
     <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A110" s="26"/>
       <c r="B110" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D110" s="26"/>
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A111" s="26"/>
       <c r="B111" s="31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D111" s="26"/>
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A112" s="26"/>
       <c r="B112" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D112" s="26"/>
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A113" s="26"/>
       <c r="B113" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D113" s="26"/>
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A114" s="26"/>
       <c r="B114" s="31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D114" s="26"/>
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A115" s="26"/>
       <c r="B115" s="31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D115" s="26"/>
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A116" s="26"/>
       <c r="B116" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D116" s="26"/>
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A117" s="26"/>
       <c r="B117" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D117" s="26"/>
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A118" s="26"/>
       <c r="B118" s="31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D118" s="26"/>
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A119" s="26"/>
       <c r="B119" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D119" s="26"/>
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A120" s="26"/>
       <c r="B120" s="31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D120" s="26"/>
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A121" s="26"/>
       <c r="B121" s="31" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D121" s="26"/>
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A122" s="26"/>
       <c r="B122" s="31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D122" s="26"/>
     </row>
     <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A123" s="26"/>
       <c r="B123" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D123" s="26"/>
     </row>
     <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A124" s="26"/>
       <c r="B124" s="31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D124" s="26"/>
     </row>
     <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A125" s="26"/>
       <c r="B125" s="31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D125" s="26"/>
     </row>
     <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A126" s="26"/>
       <c r="B126" s="31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D126" s="26"/>
     </row>
     <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A127" s="26"/>
       <c r="B127" s="31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D127" s="26"/>
     </row>
     <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A128" s="26"/>
       <c r="B128" s="31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D128" s="26"/>
     </row>
     <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A129" s="26"/>
       <c r="B129" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D129" s="26"/>
     </row>
     <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A130" s="26"/>
       <c r="B130" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D130" s="26"/>
     </row>
     <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A131" s="26"/>
       <c r="B131" s="32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D131" s="26"/>
     </row>
     <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A132" s="26"/>
       <c r="B132" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D132" s="26"/>
     </row>
     <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A133" s="26"/>
       <c r="B133" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D133" s="26"/>
     </row>
@@ -23815,200 +23815,200 @@
     <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A135" s="26"/>
       <c r="B135" s="32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D135" s="26"/>
     </row>
     <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A136" s="26"/>
       <c r="B136" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D136" s="26"/>
     </row>
     <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A137" s="26"/>
       <c r="B137" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D137" s="26"/>
     </row>
     <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A138" s="26"/>
       <c r="B138" s="32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D138" s="26"/>
     </row>
     <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A139" s="26"/>
       <c r="B139" s="32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D139" s="26"/>
     </row>
     <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A140" s="26"/>
       <c r="B140" s="32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D140" s="26"/>
     </row>
     <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A141" s="26"/>
       <c r="B141" s="32" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D141" s="26"/>
     </row>
     <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A142" s="26"/>
       <c r="B142" s="32" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D142" s="26"/>
     </row>
     <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A143" s="26"/>
       <c r="B143" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D143" s="26"/>
     </row>
     <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A144" s="26"/>
       <c r="B144" s="32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D144" s="26"/>
     </row>
     <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A145" s="26"/>
       <c r="B145" s="32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D145" s="26"/>
     </row>
     <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A146" s="26"/>
       <c r="B146" s="32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D146" s="26"/>
     </row>
     <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A147" s="26"/>
       <c r="B147" s="32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D147" s="26"/>
     </row>
     <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A148" s="26"/>
       <c r="B148" s="32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D148" s="26"/>
     </row>
     <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A149" s="26"/>
       <c r="B149" s="32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D149" s="26"/>
     </row>
     <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A150" s="26"/>
       <c r="B150" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D150" s="26"/>
     </row>
     <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A151" s="26"/>
       <c r="B151" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D151" s="26"/>
     </row>
     <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A152" s="26"/>
       <c r="B152" s="32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D152" s="26"/>
     </row>
     <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A153" s="26"/>
       <c r="B153" s="32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D153" s="26"/>
     </row>
     <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A154" s="26"/>
       <c r="B154" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D154" s="26"/>
     </row>
@@ -25775,7 +25775,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="39" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="9"/>
@@ -25833,7 +25833,7 @@
     </row>
     <row r="3" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="43" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="9"/>
@@ -25891,25 +25891,25 @@
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -25933,25 +25933,25 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>356</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>358</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="34"/>
@@ -26992,7 +26992,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="48" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="35"/>
@@ -27050,7 +27050,7 @@
     </row>
     <row r="3" spans="1:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="35"/>
@@ -27108,22 +27108,22 @@
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="D5" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="E5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="F5" s="37" t="s">
         <v>55</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>57</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3"/>
@@ -27148,22 +27148,22 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>

--- a/extras/sample-form/Sample form - Format symbol field plug-in.xlsx
+++ b/extras/sample-form/Sample form - Format symbol field plug-in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amrikcooper/Documents/GitHub/format-symbol/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE07D77C-991E-6E4A-9DD7-754D62F644DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607D53FD-96F4-934C-B550-A3B427A0B1ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2680,22 +2680,22 @@
     <t>intro_note</t>
   </si>
   <si>
-    <t>This is a sample form for the format-symbol field plug-in</t>
-  </si>
-  <si>
     <t>intro</t>
   </si>
   <si>
-    <t>See the dollar sign on the left of the input box.</t>
-  </si>
-  <si>
-    <t>See the percentage sign on the rihght of the input box.</t>
-  </si>
-  <si>
     <t>Sample form - Format symbol field plug-in</t>
   </si>
   <si>
     <t>sample_format_symbol</t>
+  </si>
+  <si>
+    <t>See the percentage sign on the right of the input box.</t>
+  </si>
+  <si>
+    <t>See the Dollar sign on the left of the input box.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welcome to this SurveyCTO sample form! This is a sample form for the &lt;a href="Welcome%20to this SurveyCTO sample form! This is a sample form for the format-symbol field plug-in." target="_blank" rel="noopener"&gt;format-symbol field plug-in&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -4696,11 +4696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -5095,12 +5095,20 @@
       <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>373</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -5124,23 +5132,25 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>367</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D12" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>372</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>369</v>
+        <v>41</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -5163,17 +5173,17 @@
         <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
@@ -5197,22 +5207,12 @@
       <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>371</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
@@ -11002,34 +11002,7 @@
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A221" s="6"/>
-      <c r="B221" s="6"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="6"/>
-      <c r="F221" s="6"/>
-      <c r="G221" s="6"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="6"/>
-      <c r="J221" s="6"/>
-      <c r="K221" s="6"/>
-      <c r="L221" s="6"/>
-      <c r="M221" s="6"/>
-      <c r="N221" s="6"/>
-      <c r="O221" s="6"/>
-      <c r="P221" s="6"/>
-      <c r="Q221" s="6"/>
-      <c r="R221" s="6"/>
-      <c r="S221" s="6"/>
-      <c r="T221" s="6"/>
-      <c r="U221" s="6"/>
-      <c r="V221" s="6"/>
-      <c r="W221" s="6"/>
-      <c r="X221" s="9"/>
-      <c r="Y221" s="9"/>
-      <c r="Z221" s="9"/>
-    </row>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="222" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="223" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="224" spans="1:26" ht="15.75" customHeight="1"/>
@@ -11809,376 +11782,375 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="B1:C13 I1:I13 F1:F13 F15:F1001 I15:I1001 B15:C1001">
+  <conditionalFormatting sqref="F14:F1000 I14:I1000 B14:C1000 B1:C12 I1:I12 F1:F12">
     <cfRule type="expression" dxfId="171" priority="1" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C13 O1:O13 I1:I13 I15:I1001 O15:O1001 B15:C1001">
+  <conditionalFormatting sqref="I14:I1000 O14:O1000 B14:C1000 B1:C12 O1:O12 I1:I12">
     <cfRule type="expression" dxfId="170" priority="2" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D13 F1:F13 F15:F1001 B15:D1001">
+  <conditionalFormatting sqref="F14:F1000 B14:D1000 B1:D12 F1:F12">
     <cfRule type="expression" dxfId="169" priority="3" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D13 G1:H13 G15:H1001 B15:D1001">
+  <conditionalFormatting sqref="G14:H1000 B14:D1000 B1:D12 G1:H12">
     <cfRule type="expression" dxfId="168" priority="4" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D13 G1:H13 G15:H1001 B15:D1001">
+  <conditionalFormatting sqref="G14:H1000 B14:D1000 B1:D12 G1:H12">
     <cfRule type="expression" dxfId="167" priority="5" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C13 F1:F13 F15:F1001 B15:C1001">
+  <conditionalFormatting sqref="F14:F1000 B14:C1000 B1:C12 F1:F12">
     <cfRule type="expression" dxfId="166" priority="6" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F13 B1:B13 B15:B1001 F15:F1001">
+  <conditionalFormatting sqref="B14:B1000 F14:F1000 F1:F12 B1:B12">
     <cfRule type="expression" dxfId="165" priority="7" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C13 B15:C1001">
+  <conditionalFormatting sqref="B14:C1000 B1:C12">
     <cfRule type="expression" dxfId="164" priority="8" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C13 B15:C1001">
+  <conditionalFormatting sqref="B14:C1000 B1:C12">
     <cfRule type="expression" dxfId="163" priority="9" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C13 B15:C1001">
+  <conditionalFormatting sqref="B14:C1000 B1:C12">
     <cfRule type="expression" dxfId="162" priority="10" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N13 B1:B13 B15:B1001 N15:N1001">
+  <conditionalFormatting sqref="B14:B1000 N14:N1000 N1:N12 B1:B12">
     <cfRule type="expression" dxfId="161" priority="11" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C13 F1:F13 F15:F1001 B15:C1001">
+  <conditionalFormatting sqref="F14:F1000 B14:C1000 B1:C12 F1:F12">
     <cfRule type="expression" dxfId="160" priority="12" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C13 F1:F13 F15:F1001 B15:C1001">
+  <conditionalFormatting sqref="F14:F1000 B14:C1000 B1:C12 F1:F12">
     <cfRule type="expression" dxfId="159" priority="13" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C13 B15:C1001">
+  <conditionalFormatting sqref="B14:C1000 B1:C12">
     <cfRule type="expression" dxfId="158" priority="14" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="157" priority="15" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="156" priority="16" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="155" priority="17" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="154" priority="18" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="153" priority="19" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="152" priority="20" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="151" priority="21" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="150" priority="22" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="149" priority="23" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="148" priority="24" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="147" priority="25" stopIfTrue="1">
       <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="146" priority="26" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="145" priority="27" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="144" priority="28" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="143" priority="29" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="142" priority="30" stopIfTrue="1">
       <formula>$A1="end repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="141" priority="31" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="140" priority="32" stopIfTrue="1">
       <formula>$A1="end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W13 A15:W1001">
+  <conditionalFormatting sqref="A14:W1000 A1:W12">
     <cfRule type="expression" dxfId="139" priority="33" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B13 B15:B1001">
+  <conditionalFormatting sqref="B14:B1000 B1:B12">
     <cfRule type="expression" dxfId="138" priority="34" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B13 F1:F13 F15:F1001 B15:B1001">
+  <conditionalFormatting sqref="F14:F1000 B14:B1000 B1:B12 F1:F12">
     <cfRule type="expression" dxfId="137" priority="35" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="136" priority="36" stopIfTrue="1">
+      <formula>$A12="integer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="135" priority="37" stopIfTrue="1">
+      <formula>$A12="decimal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13 I13 F13">
+    <cfRule type="expression" dxfId="134" priority="38" stopIfTrue="1">
+      <formula>$A13="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13 O13 I13">
+    <cfRule type="expression" dxfId="133" priority="39" stopIfTrue="1">
+      <formula>$A13="begin repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:D13 F13">
+    <cfRule type="expression" dxfId="132" priority="40" stopIfTrue="1">
+      <formula>$A13="text"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:D13 G13:H13">
+    <cfRule type="expression" dxfId="131" priority="41" stopIfTrue="1">
+      <formula>$A13="integer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:D13 G13:H13">
+    <cfRule type="expression" dxfId="130" priority="42" stopIfTrue="1">
+      <formula>$A13="decimal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13 F13">
+    <cfRule type="expression" dxfId="129" priority="43" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A13, 16)="select_multiple ", LEN($A13)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A13, 17)))), AND(LEFT($A13, 11)="select_one ", LEN($A13)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A13, 12)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13 B13">
+    <cfRule type="expression" dxfId="128" priority="44" stopIfTrue="1">
+      <formula>OR($A13="audio audit", $A13="text audit", $A13="speed violations count", $A13="speed violations list", $A13="speed violations audit")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13">
+    <cfRule type="expression" dxfId="127" priority="45" stopIfTrue="1">
+      <formula>$A13="note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13">
+    <cfRule type="expression" dxfId="126" priority="46" stopIfTrue="1">
+      <formula>$A13="barcode"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13">
+    <cfRule type="expression" dxfId="125" priority="47" stopIfTrue="1">
+      <formula>OR($A13="geopoint", $A13="geoshape", $A13="geotrace")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13 B13">
+    <cfRule type="expression" dxfId="124" priority="48" stopIfTrue="1">
+      <formula>OR($A13="calculate", $A13="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13 F13">
+    <cfRule type="expression" dxfId="123" priority="49" stopIfTrue="1">
+      <formula>OR($A13="date", $A13="datetime")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13 F13">
+    <cfRule type="expression" dxfId="122" priority="50" stopIfTrue="1">
+      <formula>$A13="image"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13">
+    <cfRule type="expression" dxfId="121" priority="51" stopIfTrue="1">
+      <formula>OR($A13="audio", $A13="video")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="120" priority="52" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A13, 14)="sensor_stream ", LEN($A13)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A13, 15)))), AND(LEFT($A13, 17)="sensor_statistic ", LEN($A13)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A13, 18)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="119" priority="53" stopIfTrue="1">
+      <formula>$A13="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="118" priority="54" stopIfTrue="1">
+      <formula>OR($A13="audio", $A13="video")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="117" priority="55" stopIfTrue="1">
+      <formula>$A13="image"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="116" priority="56" stopIfTrue="1">
+      <formula>OR($A13="date", $A13="datetime")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="115" priority="57" stopIfTrue="1">
+      <formula>OR($A13="calculate", $A13="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="114" priority="58" stopIfTrue="1">
+      <formula>$A13="note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="113" priority="59" stopIfTrue="1">
+      <formula>$A13="barcode"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="112" priority="60" stopIfTrue="1">
+      <formula>OR($A13="geopoint", $A13="geoshape", $A13="geotrace")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="111" priority="61" stopIfTrue="1">
+      <formula>OR($A13="audio audit", $A13="text audit", $A13="speed violations count", $A13="speed violations list", $A13="speed violations audit")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="110" priority="62" stopIfTrue="1">
+      <formula>OR($A13="username", $A13="phonenumber", $A13="start", $A13="end", $A13="deviceid", $A13="subscriberid", $A13="simserial", $A13="caseid")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="109" priority="63" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A13, 16)="select_multiple ", LEN($A13)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A13, 17)))), AND(LEFT($A13, 11)="select_one ", LEN($A13)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A13, 12)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="108" priority="64" stopIfTrue="1">
+      <formula>$A13="decimal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="107" priority="65" stopIfTrue="1">
+      <formula>$A13="integer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="106" priority="66" stopIfTrue="1">
+      <formula>$A13="text"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="105" priority="67" stopIfTrue="1">
+      <formula>$A13="end repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="104" priority="68" stopIfTrue="1">
+      <formula>$A13="begin repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="103" priority="69" stopIfTrue="1">
+      <formula>$A13="end group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:W13">
+    <cfRule type="expression" dxfId="102" priority="70" stopIfTrue="1">
+      <formula>$A13="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="101" priority="71" stopIfTrue="1">
+      <formula>$A13="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13 F13">
+    <cfRule type="expression" dxfId="100" priority="72" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A13, 14)="sensor_stream ", LEN($A13)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A13, 15)))), AND(LEFT($A13, 17)="sensor_statistic ", LEN($A13)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A13, 18)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="136" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="73" stopIfTrue="1">
       <formula>$A13="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="135" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="74" stopIfTrue="1">
       <formula>$A13="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14 I14 F14">
-    <cfRule type="expression" dxfId="134" priority="38" stopIfTrue="1">
-      <formula>$A14="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14 O14 I14">
-    <cfRule type="expression" dxfId="133" priority="39" stopIfTrue="1">
-      <formula>$A14="begin repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:D14 F14">
-    <cfRule type="expression" dxfId="132" priority="40" stopIfTrue="1">
-      <formula>$A14="text"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:D14 G14:H14">
-    <cfRule type="expression" dxfId="131" priority="41" stopIfTrue="1">
-      <formula>$A14="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:D14 G14:H14">
-    <cfRule type="expression" dxfId="130" priority="42" stopIfTrue="1">
-      <formula>$A14="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14 F14">
-    <cfRule type="expression" dxfId="129" priority="43" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A14, 16)="select_multiple ", LEN($A14)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A14, 17)))), AND(LEFT($A14, 11)="select_one ", LEN($A14)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A14, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14 B14">
-    <cfRule type="expression" dxfId="128" priority="44" stopIfTrue="1">
-      <formula>OR($A14="audio audit", $A14="text audit", $A14="speed violations count", $A14="speed violations list", $A14="speed violations audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14">
-    <cfRule type="expression" dxfId="127" priority="45" stopIfTrue="1">
-      <formula>$A14="note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14">
-    <cfRule type="expression" dxfId="126" priority="46" stopIfTrue="1">
-      <formula>$A14="barcode"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14">
-    <cfRule type="expression" dxfId="125" priority="47" stopIfTrue="1">
-      <formula>OR($A14="geopoint", $A14="geoshape", $A14="geotrace")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14 B14">
-    <cfRule type="expression" dxfId="124" priority="48" stopIfTrue="1">
-      <formula>OR($A14="calculate", $A14="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14 F14">
-    <cfRule type="expression" dxfId="123" priority="49" stopIfTrue="1">
-      <formula>OR($A14="date", $A14="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14 F14">
-    <cfRule type="expression" dxfId="122" priority="50" stopIfTrue="1">
-      <formula>$A14="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14">
-    <cfRule type="expression" dxfId="121" priority="51" stopIfTrue="1">
-      <formula>OR($A14="audio", $A14="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="120" priority="52" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A14, 14)="sensor_stream ", LEN($A14)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A14, 15)))), AND(LEFT($A14, 17)="sensor_statistic ", LEN($A14)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A14, 18)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="119" priority="53" stopIfTrue="1">
-      <formula>$A14="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="118" priority="54" stopIfTrue="1">
-      <formula>OR($A14="audio", $A14="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="117" priority="55" stopIfTrue="1">
-      <formula>$A14="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="116" priority="56" stopIfTrue="1">
-      <formula>OR($A14="date", $A14="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="115" priority="57" stopIfTrue="1">
-      <formula>OR($A14="calculate", $A14="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="114" priority="58" stopIfTrue="1">
-      <formula>$A14="note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="113" priority="59" stopIfTrue="1">
-      <formula>$A14="barcode"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="112" priority="60" stopIfTrue="1">
-      <formula>OR($A14="geopoint", $A14="geoshape", $A14="geotrace")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="111" priority="61" stopIfTrue="1">
-      <formula>OR($A14="audio audit", $A14="text audit", $A14="speed violations count", $A14="speed violations list", $A14="speed violations audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="110" priority="62" stopIfTrue="1">
-      <formula>OR($A14="username", $A14="phonenumber", $A14="start", $A14="end", $A14="deviceid", $A14="subscriberid", $A14="simserial", $A14="caseid")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="109" priority="63" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A14, 16)="select_multiple ", LEN($A14)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A14, 17)))), AND(LEFT($A14, 11)="select_one ", LEN($A14)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A14, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="108" priority="64" stopIfTrue="1">
-      <formula>$A14="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="107" priority="65" stopIfTrue="1">
-      <formula>$A14="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="106" priority="66" stopIfTrue="1">
-      <formula>$A14="text"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="105" priority="67" stopIfTrue="1">
-      <formula>$A14="end repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="104" priority="68" stopIfTrue="1">
-      <formula>$A14="begin repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="103" priority="69" stopIfTrue="1">
-      <formula>$A14="end group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:W14">
-    <cfRule type="expression" dxfId="102" priority="70" stopIfTrue="1">
-      <formula>$A14="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="101" priority="71" stopIfTrue="1">
-      <formula>$A14="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14 F14">
-    <cfRule type="expression" dxfId="100" priority="72" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A14, 14)="sensor_stream ", LEN($A14)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A14, 15)))), AND(LEFT($A14, 17)="sensor_statistic ", LEN($A14)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A14, 18)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="99" priority="73" stopIfTrue="1">
-      <formula>$A14="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="98" priority="74" stopIfTrue="1">
-      <formula>$A14="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0" footer="0"/>
@@ -18955,7 +18927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -19011,14 +18983,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2103051607</v>
+        <v>2103051617</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>58</v>
